--- a/workmain/src/main/resources/exceltemplate/融创云湖十里下料单-模板.xlsx
+++ b/workmain/src/main/resources/exceltemplate/融创云湖十里下料单-模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\easywork\workmain\src\main\resources\exceltemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MengChen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330FE5C4-17C4-4CD8-94E5-353C78B5D147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2892A6-1646-4DEF-B41A-B596759E7732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>南充华鑫下料单</t>
   </si>
   <si>
-    <t>项目：融创云湖十里E区4#百叶         颜色：            单号：        日期：2021/10/19</t>
-  </si>
-  <si>
-    <t>边框：20*40*0.7    叶片：75mm*0.5   半孔管“左右”各半冲孔（间距70mm)    打包角</t>
-  </si>
-  <si>
     <t>原始数据</t>
   </si>
   <si>
@@ -121,6 +115,14 @@
   </si>
   <si>
     <t>{.remark}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：{project}         颜色：{colour}            单号：        日期：{date}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框：{frame}    叶片：{blade}   半孔管“左右”各半冲孔（间距70mm)    打包角</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +179,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +247,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,14 +271,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +556,7 @@
   <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -551,150 +567,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">

--- a/workmain/src/main/resources/exceltemplate/融创云湖十里下料单-模板.xlsx
+++ b/workmain/src/main/resources/exceltemplate/融创云湖十里下料单-模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MengChen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\easywork\workmain\src\main\resources\exceltemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2892A6-1646-4DEF-B41A-B596759E7732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF21C0-0F1F-4ABF-A283-C4FC08250A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4#" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>南充华鑫下料单</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>边框：{frame}    叶片：{blade}   半孔管“左右”各半冲孔（间距70mm)    打包角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sumNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sumLeafCount}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sumArea}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,7 +280,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -271,11 +298,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,17 +580,17 @@
   <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="1"/>
-    <col min="11" max="11" width="9.6328125"/>
+    <col min="1" max="3" width="5.75" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1"/>
+    <col min="11" max="11" width="9.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -583,74 +607,74 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -660,18 +684,18 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -708,1442 +732,1442 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="6">
-        <v>96</v>
+      <c r="C7" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6">
-        <v>1088</v>
-      </c>
-      <c r="J7" s="6">
-        <v>189.69330000000002</v>
+      <c r="I7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
     </row>
-    <row r="106" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
     </row>
-    <row r="107" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
     </row>
-    <row r="108" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
     </row>
-    <row r="109" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
     </row>
-    <row r="110" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
     </row>
-    <row r="115" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
     </row>
-    <row r="116" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
     </row>
-    <row r="117" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
     </row>
-    <row r="118" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
     </row>
-    <row r="119" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
     </row>
-    <row r="120" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
     </row>
-    <row r="124" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
     </row>
-    <row r="125" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
     </row>
-    <row r="126" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
     </row>
-    <row r="127" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
     </row>
-    <row r="128" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
     </row>
-    <row r="129" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
     </row>
-    <row r="130" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
     </row>
-    <row r="131" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
     </row>
-    <row r="132" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
     </row>
-    <row r="133" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
     </row>
-    <row r="134" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
     </row>
-    <row r="135" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
     </row>
-    <row r="136" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
     </row>
-    <row r="137" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
     </row>
-    <row r="138" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
     </row>
-    <row r="139" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
     </row>
-    <row r="140" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
     </row>
-    <row r="141" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
     </row>
-    <row r="142" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
     </row>
-    <row r="143" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
     </row>
-    <row r="144" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
     </row>
-    <row r="145" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
     </row>
-    <row r="146" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
     </row>
-    <row r="147" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
     </row>
-    <row r="148" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
     </row>
-    <row r="149" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
     </row>
-    <row r="150" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
     </row>
-    <row r="151" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
     </row>
-    <row r="152" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
     </row>
-    <row r="153" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
     </row>
-    <row r="154" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
     </row>
-    <row r="155" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
     </row>
-    <row r="156" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
     </row>
-    <row r="157" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
     </row>
-    <row r="158" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
     </row>
-    <row r="159" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
     </row>
-    <row r="162" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
     </row>
-    <row r="163" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
     </row>
-    <row r="164" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
     </row>
-    <row r="165" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
     </row>
-    <row r="166" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
     </row>
-    <row r="167" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
     </row>
-    <row r="168" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
     </row>
-    <row r="169" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
     </row>
-    <row r="170" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
     </row>
-    <row r="171" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
     </row>
-    <row r="172" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
     </row>
-    <row r="173" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
     </row>
-    <row r="174" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
     </row>
-    <row r="175" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
     </row>
-    <row r="176" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
     </row>
-    <row r="177" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
     </row>
-    <row r="178" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
     </row>
-    <row r="179" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
     </row>
-    <row r="180" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
     </row>
-    <row r="181" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
     </row>
-    <row r="182" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
     </row>
-    <row r="183" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
     </row>
-    <row r="184" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
     </row>
-    <row r="185" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
     </row>
-    <row r="186" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
     </row>
-    <row r="187" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
     </row>
-    <row r="188" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
     </row>
-    <row r="189" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
     </row>
-    <row r="190" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
     </row>
-    <row r="191" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
     </row>
-    <row r="192" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
     </row>
-    <row r="193" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
     </row>
-    <row r="194" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
     </row>
-    <row r="195" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
     </row>
-    <row r="196" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
     </row>
-    <row r="197" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
     </row>
-    <row r="198" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
     </row>
-    <row r="199" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
     </row>
-    <row r="200" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
     </row>
-    <row r="201" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
     </row>
-    <row r="202" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
     </row>
-    <row r="203" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
     </row>
-    <row r="204" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
     </row>
-    <row r="205" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
     </row>
-    <row r="206" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
     </row>
-    <row r="207" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
     </row>
-    <row r="208" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
     </row>
-    <row r="209" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
     </row>
-    <row r="210" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
     </row>
-    <row r="211" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
     </row>
-    <row r="212" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
     </row>
-    <row r="214" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
     </row>
-    <row r="215" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
     </row>
-    <row r="216" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
     </row>
-    <row r="217" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
     </row>
-    <row r="218" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
     </row>
-    <row r="219" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
     </row>
-    <row r="220" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
     </row>
-    <row r="221" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
     </row>
-    <row r="222" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
     </row>
-    <row r="223" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
     </row>
-    <row r="224" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
     </row>
-    <row r="225" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
     </row>
-    <row r="226" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
     </row>
-    <row r="227" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
     </row>
-    <row r="229" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
     </row>
-    <row r="231" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
     </row>
-    <row r="232" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
     </row>
-    <row r="233" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
     </row>
-    <row r="234" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
     </row>
-    <row r="235" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
     </row>
-    <row r="236" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
     </row>
-    <row r="237" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
     </row>
-    <row r="238" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
     </row>
-    <row r="239" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
     </row>
-    <row r="240" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
     </row>
-    <row r="241" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
     </row>
-    <row r="242" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
     </row>
-    <row r="243" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
     </row>
-    <row r="244" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
     </row>
-    <row r="245" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
     </row>
-    <row r="246" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
     </row>
-    <row r="247" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
     </row>
-    <row r="248" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
     </row>
-    <row r="249" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
     </row>
-    <row r="250" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
     </row>
-    <row r="251" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
     </row>
-    <row r="252" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
     </row>
-    <row r="253" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
     </row>
-    <row r="254" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
     </row>
-    <row r="255" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
     </row>
-    <row r="256" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
     </row>
-    <row r="257" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
     </row>
-    <row r="258" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
     </row>
-    <row r="259" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
     </row>
-    <row r="260" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
     </row>
-    <row r="261" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
     </row>
-    <row r="262" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
     </row>
-    <row r="263" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
     </row>
-    <row r="264" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
     </row>
-    <row r="265" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
     </row>
-    <row r="266" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
     </row>
-    <row r="267" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
     </row>
-    <row r="268" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
     </row>
-    <row r="269" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
     </row>
-    <row r="270" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
     </row>
-    <row r="271" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
     </row>
-    <row r="272" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
     </row>
-    <row r="273" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
     </row>
-    <row r="274" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
     </row>
-    <row r="275" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
     </row>
-    <row r="276" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
     </row>
-    <row r="277" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
     </row>
-    <row r="278" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
     </row>
-    <row r="279" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
     </row>
-    <row r="280" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
     </row>
-    <row r="281" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
     </row>
-    <row r="282" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
     </row>
-    <row r="283" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
     </row>
-    <row r="284" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
     </row>
-    <row r="285" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
     </row>
-    <row r="286" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
     </row>
-    <row r="287" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
     </row>
-    <row r="288" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
     </row>
-    <row r="289" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
     </row>
-    <row r="290" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
     </row>
-    <row r="291" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
     </row>
-    <row r="292" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
     </row>
-    <row r="293" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
     </row>
-    <row r="294" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
     </row>
-    <row r="295" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
     </row>
-    <row r="296" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
     </row>
-    <row r="297" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
     </row>
-    <row r="298" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L298" s="5"/>
       <c r="M298" s="5"/>
     </row>
-    <row r="299" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
     </row>
-    <row r="300" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
     </row>
-    <row r="301" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L301" s="5"/>
       <c r="M301" s="5"/>
     </row>
-    <row r="302" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L302" s="5"/>
       <c r="M302" s="5"/>
     </row>
-    <row r="303" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L303" s="5"/>
       <c r="M303" s="5"/>
     </row>
-    <row r="304" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L304" s="5"/>
       <c r="M304" s="5"/>
     </row>
-    <row r="305" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L305" s="5"/>
       <c r="M305" s="5"/>
     </row>
-    <row r="306" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L306" s="5"/>
       <c r="M306" s="5"/>
     </row>
-    <row r="307" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L307" s="5"/>
       <c r="M307" s="5"/>
     </row>
-    <row r="308" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L308" s="5"/>
       <c r="M308" s="5"/>
     </row>
-    <row r="309" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L309" s="5"/>
       <c r="M309" s="5"/>
     </row>
-    <row r="310" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L310" s="5"/>
       <c r="M310" s="5"/>
     </row>
-    <row r="311" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L311" s="5"/>
       <c r="M311" s="5"/>
     </row>
-    <row r="312" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L312" s="5"/>
       <c r="M312" s="5"/>
     </row>
-    <row r="313" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L313" s="5"/>
       <c r="M313" s="5"/>
     </row>
-    <row r="314" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L314" s="5"/>
       <c r="M314" s="5"/>
     </row>
-    <row r="315" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
     </row>
-    <row r="316" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
     </row>
-    <row r="317" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
     </row>
-    <row r="318" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
     </row>
-    <row r="319" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
     </row>
-    <row r="320" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
     </row>
-    <row r="321" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L321" s="5"/>
       <c r="M321" s="5"/>
     </row>
-    <row r="322" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L322" s="5"/>
       <c r="M322" s="5"/>
     </row>
-    <row r="323" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L323" s="5"/>
       <c r="M323" s="5"/>
     </row>
-    <row r="324" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L324" s="5"/>
       <c r="M324" s="5"/>
     </row>
-    <row r="325" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L325" s="5"/>
       <c r="M325" s="5"/>
     </row>
-    <row r="326" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L326" s="5"/>
       <c r="M326" s="5"/>
     </row>
-    <row r="327" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L327" s="5"/>
       <c r="M327" s="5"/>
     </row>
-    <row r="328" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L328" s="5"/>
       <c r="M328" s="5"/>
     </row>
-    <row r="329" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L329" s="5"/>
       <c r="M329" s="5"/>
     </row>
-    <row r="330" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L330" s="5"/>
       <c r="M330" s="5"/>
     </row>
-    <row r="331" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L331" s="5"/>
       <c r="M331" s="5"/>
     </row>
-    <row r="332" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L332" s="5"/>
       <c r="M332" s="5"/>
     </row>
-    <row r="333" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L333" s="5"/>
       <c r="M333" s="5"/>
     </row>
-    <row r="334" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L334" s="5"/>
       <c r="M334" s="5"/>
     </row>
-    <row r="335" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L335" s="5"/>
       <c r="M335" s="5"/>
     </row>
-    <row r="336" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L336" s="5"/>
       <c r="M336" s="5"/>
     </row>
-    <row r="337" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L337" s="5"/>
       <c r="M337" s="5"/>
     </row>
-    <row r="338" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L338" s="5"/>
       <c r="M338" s="5"/>
     </row>
-    <row r="339" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L339" s="5"/>
       <c r="M339" s="5"/>
     </row>
-    <row r="340" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L340" s="5"/>
       <c r="M340" s="5"/>
     </row>
-    <row r="341" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L341" s="5"/>
       <c r="M341" s="5"/>
     </row>
-    <row r="342" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L342" s="5"/>
       <c r="M342" s="5"/>
     </row>
-    <row r="343" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L343" s="5"/>
       <c r="M343" s="5"/>
     </row>
-    <row r="344" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L344" s="5"/>
       <c r="M344" s="5"/>
     </row>
-    <row r="345" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L345" s="5"/>
       <c r="M345" s="5"/>
     </row>
-    <row r="346" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L346" s="5"/>
       <c r="M346" s="5"/>
     </row>
-    <row r="347" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L347" s="5"/>
       <c r="M347" s="5"/>
     </row>
-    <row r="348" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L348" s="5"/>
       <c r="M348" s="5"/>
     </row>
-    <row r="349" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L349" s="5"/>
       <c r="M349" s="5"/>
     </row>
-    <row r="350" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L350" s="5"/>
       <c r="M350" s="5"/>
     </row>
-    <row r="351" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L351" s="5"/>
       <c r="M351" s="5"/>
     </row>
-    <row r="352" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L352" s="5"/>
       <c r="M352" s="5"/>
     </row>
-    <row r="353" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L353" s="5"/>
       <c r="M353" s="5"/>
     </row>
-    <row r="354" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L354" s="5"/>
       <c r="M354" s="5"/>
     </row>
-    <row r="355" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L355" s="5"/>
       <c r="M355" s="5"/>
     </row>
-    <row r="356" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L356" s="5"/>
       <c r="M356" s="5"/>
     </row>
-    <row r="357" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L357" s="5"/>
       <c r="M357" s="5"/>
     </row>
-    <row r="358" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L358" s="5"/>
       <c r="M358" s="5"/>
     </row>
-    <row r="359" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L359" s="5"/>
       <c r="M359" s="5"/>
     </row>
-    <row r="360" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L360" s="5"/>
       <c r="M360" s="5"/>
     </row>
-    <row r="361" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L361" s="5"/>
       <c r="M361" s="5"/>
     </row>
